--- a/frontend/src/assets/planilha.xlsx
+++ b/frontend/src/assets/planilha.xlsx
@@ -408,9 +408,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4299E55-BF24-4738-8BF8-3FF6A26277F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4164AA20-5D9E-482D-B012-8C1531AEE719}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC071E03-E9B5-4CAE-B1A8-4875FAC9DAA2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F83892B-A9AC-4E2F-B818-EBBF312A223F}"/>
 </file>